--- a/biology/Botanique/Rumex_vesicarius/Rumex_vesicarius.xlsx
+++ b/biology/Botanique/Rumex_vesicarius/Rumex_vesicarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rumex vesicarius est une plante de la famille des Polygonacées originaire de l'Afrique saharienne et du Moyen-Orient.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acetosa vesicaria (L.) Á. Löve (1948)
 Rumex bolosii Stübing, Peris &amp; Romo
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante annuelle herbacée pouvant atteindre 50 centimètres de haut[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle herbacée pouvant atteindre 50 centimètres de haut.
 Ses fleurs aux ailettes rosées finement nervurées sont caractéristiques.
 			Rumex vesicarius sur les graviers volcaniques de Lanzarote.
 			Épi floral de Rumex vesicarius à Tenerife
@@ -577,10 +593,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rumex vesicarius  est dispersée dans les zones arides d'Afrique Saharienne, de la péninsule arabique, et du Moyen-Orient, depuis les Îles Canaries jusqu'au Penjab.
-Aux Îles Canaries, la variété Rumex vesicarius var. rhodophysa Ball est pionnière des roches volcaniques[1], son nom local est Vinagrerilla roja[1].
+Aux Îles Canaries, la variété Rumex vesicarius var. rhodophysa Ball est pionnière des roches volcaniques, son nom local est Vinagrerilla roja.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est supposée avoir des propriétés astringentes, diurétiques et laxatives[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est supposée avoir des propriétés astringentes, diurétiques et laxatives.
 </t>
         </is>
       </c>
